--- a/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="H3" sheetId="3" r:id="rId3"/>
     <sheet name="H4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1368,6 +1368,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1776,7 +1790,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4568,7 +4582,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="H3" sheetId="3" r:id="rId3"/>
     <sheet name="H4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>H1</t>
   </si>
@@ -58,12 +58,49 @@
   <si>
     <t>Dialogue4</t>
   </si>
+  <si>
+    <t>A=0.9 B=0.4 
+Diff</t>
+  </si>
+  <si>
+    <t>A=0.7 B=0.4 
+Diff</t>
+  </si>
+  <si>
+    <t>A=0.7 B=0.2
+ Diff</t>
+  </si>
+  <si>
+    <t>A=0.7 B=0.4 
+Sim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +129,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +188,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Agent 1</c:v>
+            <c:v>A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -214,16 +266,20 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Dialogue1</c:v>
+                  <c:v>A=0.9 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dialogue2</c:v>
+                  <c:v>A=0.7 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dialogue3</c:v>
+                  <c:v>A=0.7 B=0.2
+ Diff</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dialogue4</c:v>
+                  <c:v>A=0.7 B=0.4 
+Sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -259,7 +315,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Agent 2</c:v>
+            <c:v>B</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="dkHorz">
@@ -344,16 +400,20 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Dialogue1</c:v>
+                  <c:v>A=0.9 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dialogue2</c:v>
+                  <c:v>A=0.7 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dialogue3</c:v>
+                  <c:v>A=0.7 B=0.2
+ Diff</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dialogue4</c:v>
+                  <c:v>A=0.7 B=0.4 
+Sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -682,16 +742,20 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Dialogue1</c:v>
+                  <c:v>A=0.9 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dialogue2</c:v>
+                  <c:v>A=0.7 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dialogue3</c:v>
+                  <c:v>A=0.7 B=0.2
+ Diff</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dialogue4</c:v>
+                  <c:v>A=0.7 B=0.4 
+Sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,16 +1208,20 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Dialogue1</c:v>
+                  <c:v>A=0.9 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dialogue2</c:v>
+                  <c:v>A=0.7 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dialogue3</c:v>
+                  <c:v>A=0.7 B=0.2
+ Diff</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dialogue4</c:v>
+                  <c:v>A=0.7 B=0.4 
+Sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,16 +1665,20 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Dialogue1</c:v>
+                  <c:v>A=0.9 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dialogue2</c:v>
+                  <c:v>A=0.7 B=0.4 
+Diff</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dialogue3</c:v>
+                  <c:v>A=0.7 B=0.2
+ Diff</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dialogue4</c:v>
+                  <c:v>A=0.7 B=0.4 
+Sim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4581,292 +4653,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.62890625" customWidth="1"/>
+    <col min="1" max="1" width="30.62890625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="10.9453125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
         <v>3.961538</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2.211538</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>2.1923080000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>4.3076920000000003</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>4.0769229999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>2.6538460000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>4.2307689999999996</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>2.3076919999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
         <v>3.5961539999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>2.1923080000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>2.5576919999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>3.8076919999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>4.038462</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>2.6730770000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>3.8461539999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>2.5961539999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
         <v>2.8333330000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>2.1458330000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>2.7083330000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>3.6458330000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>3.4791669999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>2.3333330000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>3.7916669999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>2.875</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
         <v>3.3888889999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1.962963</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>2.2962959999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>3.2222219999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>3.7962959999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.888889</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>4.5555560000000002</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>1.9444440000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1.119551</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.91472779999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>1.1032649999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.82932669999999997</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0.85968880000000003</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>1.1527400000000001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.89913650000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>1.163808</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>0.99527540000000003</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0.79306949999999998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>1.2112780000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>1.0485930000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>0.79116540000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>0.96449019999999996</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>0.97788520000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>1.0711839999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>1.154701</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>0.77155779999999996</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>1.2540709999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>0.88701229999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>1.16673</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>0.97486130000000004</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>0.94437490000000002</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>1.103669</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>1.0535950000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0.91037959999999996</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>1.0394049999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>1.127138</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>0.91897459999999997</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>0.79305159999999997</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>0.57187759999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>0.97934650000000001</v>
       </c>
     </row>
@@ -4881,123 +4954,124 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.62890625" customWidth="1"/>
+    <col min="1" max="1" width="30.62890625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.9453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.1923080000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4.3076920000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.5576919999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.8076919999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.7083330000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3.6458330000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
         <v>2.2962959999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.2222219999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1.1032649999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.82932669999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.2112780000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.0485930000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1.2540709999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.88701229999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1.0394049999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.127138</v>
       </c>
     </row>
@@ -5011,116 +5085,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.62890625" customWidth="1"/>
+    <col min="1" max="1" width="30.62890625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="10.9453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
         <v>4.0769229999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2.6538460000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>4.038462</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.6730770000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.4791669999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2.3333330000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.7962959999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1.888889</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.85968880000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1.1527400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.79116540000000002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.96449019999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1.16673</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.97486130000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.91897459999999997</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.79305159999999997</v>
       </c>
     </row>
@@ -5134,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5155,8 +5230,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4.2307689999999996</v>
@@ -5165,9 +5240,9 @@
         <v>2.3076919999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3.8461539999999999</v>
@@ -5177,8 +5252,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3.7916669999999999</v>
@@ -5188,8 +5263,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4.5555560000000002</v>

--- a/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
+++ b/cooperativeNegotiation/crowdFlower/Study/Results/Graphs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\cooperativeNegotiation\crowdFlower\Study\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADEC5395-3752-428D-9786-1D2CFCD3F3E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +189,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>A</c:v>
+            <c:v>Agent A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -315,19 +316,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>B</c:v>
+            <c:v>Agent B</c:v>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +660,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Agent1</c:v>
+            <c:v>Agent A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -791,19 +787,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Agent 2</c:v>
+            <c:v>Agent B</c:v>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1121,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Agent1</c:v>
+            <c:v>Agent A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1257,19 +1248,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Agent2</c:v>
+            <c:v>Agent B</c:v>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1573,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Agent1</c:v>
+            <c:v>Agent A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1714,19 +1700,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Agent2</c:v>
+            <c:v>Agent B</c:v>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4277,15 +4258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>720090</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4317,16 +4298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4650,10 +4631,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
@@ -4950,11 +4931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5082,10 +5063,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
@@ -5206,10 +5187,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
